--- a/DEAN_import_format.xlsx
+++ b/DEAN_import_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t xml:space="preserve">person_id</t>
   </si>
@@ -89,6 +89,36 @@
   </si>
   <si>
     <t xml:space="preserve">enrollment_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrollment_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completion_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completion_success_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdrawal_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrollment_status_change_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_grade_final_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_grade_final_letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_grade_to_date_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_grade_to_date_letter</t>
   </si>
 </sst>
 </file>
@@ -218,7 +248,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -324,8 +354,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -394,17 +424,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0333333333333"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.562962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9481481481481"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.6555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5111111111111"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.1518518518519"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,6 +454,39 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DEAN_import_format.xlsx
+++ b/DEAN_import_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">person_id</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">course_name</t>
   </si>
   <si>
+    <t xml:space="preserve">PSY180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpersonal Effectiveness</t>
+  </si>
+  <si>
     <t xml:space="preserve">course_section_id</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">last_day_to_withdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSY180</t>
   </si>
   <si>
     <t xml:space="preserve">AN130704.0807.5W</t>
@@ -311,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -336,6 +339,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1395954</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -354,8 +368,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -370,22 +384,22 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,10 +407,10 @@
         <v>1395954</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>41459</v>
@@ -450,43 +464,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DEAN_import_format.xlsx
+++ b/DEAN_import_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">person_id</t>
   </si>
@@ -55,6 +55,12 @@
     <t xml:space="preserve">Bucci</t>
   </si>
   <si>
+    <t xml:space="preserve">Erica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watley</t>
+  </si>
+  <si>
     <t xml:space="preserve">course_id</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">last_day_to_withdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instructor_id</t>
   </si>
   <si>
     <t xml:space="preserve">AN130704.0807.5W</t>
@@ -248,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -296,6 +305,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -316,27 +336,27 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1925925925926"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0296296296296"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,10 +364,10 @@
         <v>1395954</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -366,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -379,27 +399,31 @@
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3666666666667"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.9962962962963"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.537037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,10 +431,10 @@
         <v>1395954</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>41459</v>
@@ -420,6 +444,9 @@
       </c>
       <c r="F2" s="4" t="n">
         <v>41466</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
@@ -438,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -464,43 +491,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DEAN_import_format.xlsx
+++ b/DEAN_import_format.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Course" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Course_Section" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Enrollment" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Student_Enrollment" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Person!$A$1:$F$2</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">person_id</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">course_section_code</t>
   </si>
   <si>
+    <t xml:space="preserve">delivery_method</t>
+  </si>
+  <si>
     <t xml:space="preserve">term_code</t>
   </si>
   <si>
@@ -97,7 +100,19 @@
     <t xml:space="preserve">instructor_id</t>
   </si>
   <si>
+    <t xml:space="preserve">campus_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online</t>
+  </si>
+  <si>
     <t xml:space="preserve">AN130704.0807.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argosy University – Online</t>
   </si>
   <si>
     <t xml:space="preserve">enrollment_id</t>
@@ -259,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -337,7 +352,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -386,21 +401,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.537037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.0703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.062962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.537037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.0148148148148"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.062962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,42 +429,62 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1395954</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1395954</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>41459</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="G2" s="4" t="n">
         <v>41493</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="H2" s="4" t="n">
         <v>41466</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>10001</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -467,71 +505,80 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.562962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9740740740741"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5111111111111"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.1518518518519"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.462962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.51111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7444444444444"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.937037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6740740740741"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8555555555556"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>49610588</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1395954</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>23849503</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/DEAN_import_format.xlsx
+++ b/DEAN_import_format.xlsx
@@ -18,6 +18,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Person!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Person!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Person!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Person!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Person!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">person_id</t>
   </si>
@@ -136,16 +138,13 @@
     <t xml:space="preserve">enrollment_status_change_date</t>
   </si>
   <si>
-    <t xml:space="preserve">course_grade_final_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_grade_final_letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_grade_to_date_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_grade_to_date_letter</t>
+    <t xml:space="preserve">course_grade_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_grade_letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-</t>
   </si>
 </sst>
 </file>
@@ -230,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +248,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,13 +283,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,10 +360,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,16 +412,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.062962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.537037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.0148148148148"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.062962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,28 +506,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.462962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.51111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.937037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6740740740741"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.4555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,12 +561,8 @@
       <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -578,8 +574,17 @@
       <c r="C2" s="0" t="n">
         <v>23849503</v>
       </c>
+      <c r="D2" s="5" t="n">
+        <v>41459</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
